--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_12_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_12_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2323372.505578184</v>
+        <v>2320828.730911526</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12445190.96012776</v>
+        <v>12445190.96012775</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>225.2711185871664</v>
+        <v>12.83561175645086</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>263.5639921989978</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3620237587338</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.8004413602294</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2960065554913</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>263.5639921989987</v>
+        <v>259.1050195542562</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>263.5639921989987</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.5639921989987</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,7 +738,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.94827785225805</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,16 +786,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1642178017449</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8440868802706</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8545380905306</v>
       </c>
       <c r="V3" t="n">
-        <v>182.271501497209</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>36.7481313425376</v>
       </c>
     </row>
     <row r="4">
@@ -826,19 +826,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3878907573036</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.11777503404758</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5335881704493</v>
       </c>
       <c r="S4" t="n">
         <v>204.7303985328714</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>263.5639921989987</v>
+        <v>60.3399647523811</v>
       </c>
       <c r="V4" t="n">
-        <v>130.4419349380264</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>263.5639921989987</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>212.5689651179051</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -911,7 +911,7 @@
         <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,10 +953,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>263.7138800015061</v>
+        <v>59.80127191868264</v>
       </c>
       <c r="W5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -972,19 +972,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>242.8563301598665</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>68.71732409076193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>53.36410705247989</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>83.43224246993545</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>362.3909099241627</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>199.6452357812554</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>119.0511125768767</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>21.21812042899091</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1376,13 +1376,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722629</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187859</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>79.05856366754516</v>
       </c>
       <c r="G13" t="n">
-        <v>99.97427419833859</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174141</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>19.91555826188359</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,10 +1819,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892516</v>
       </c>
       <c r="V16" t="n">
-        <v>135.4684761590174</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710087</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1856,10 +1856,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1904,10 +1904,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>59.45282559760447</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2087,16 +2087,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722631</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2138,13 +2138,13 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701358</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>59.96838802184548</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428256</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710084</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2327,13 +2327,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2375,7 +2375,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701364</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>48.4745767553171</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,10 +2530,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>242.4603833710101</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2612,7 +2612,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701358</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-3.758651504979533e-12</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>39.52129633183167</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>161.3555494301563</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>45.66054613217701</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881277</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3184,16 +3184,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>114.2821160880066</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>14.92158678358384</v>
       </c>
     </row>
     <row r="35">
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>130.1208074460236</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>31.26260713376568</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206821</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,19 +3661,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>123.9815576456779</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>6.600826611595375</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>152.0575603057049</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3989,7 +3989,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4138,10 +4138,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,13 +4189,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>74.53917159609307</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>255.5772045566046</v>
+        <v>423.7494359980349</v>
       </c>
       <c r="C2" t="n">
-        <v>255.5772045566046</v>
+        <v>423.7494359980349</v>
       </c>
       <c r="D2" t="n">
-        <v>255.5772045566046</v>
+        <v>423.7494359980349</v>
       </c>
       <c r="E2" t="n">
-        <v>255.5772045566046</v>
+        <v>423.7494359980349</v>
       </c>
       <c r="F2" t="n">
-        <v>248.6317038074012</v>
+        <v>416.8039352488314</v>
       </c>
       <c r="G2" t="n">
-        <v>21.08511937591989</v>
+        <v>403.838670848376</v>
       </c>
       <c r="H2" t="n">
-        <v>21.08511937591989</v>
+        <v>137.6124161019135</v>
       </c>
       <c r="I2" t="n">
-        <v>21.08511937591989</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="J2" t="n">
-        <v>49.14994660701199</v>
+        <v>49.14994660701122</v>
       </c>
       <c r="K2" t="n">
-        <v>141.9503658164437</v>
+        <v>141.9503658164419</v>
       </c>
       <c r="L2" t="n">
-        <v>293.9792536780769</v>
+        <v>293.9792536780738</v>
       </c>
       <c r="M2" t="n">
-        <v>494.8101216988875</v>
+        <v>494.8101216988829</v>
       </c>
       <c r="N2" t="n">
-        <v>703.5044515053161</v>
+        <v>703.5044515053099</v>
       </c>
       <c r="O2" t="n">
-        <v>887.2333280196128</v>
+        <v>888.2736487381127</v>
       </c>
       <c r="P2" t="n">
-        <v>1009.540672547822</v>
+        <v>1010.58099326632</v>
       </c>
       <c r="Q2" t="n">
-        <v>1053.215648077494</v>
+        <v>1054.255968795991</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.255968795995</v>
+        <v>1054.255968795991</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.255968795995</v>
+        <v>899.9120886341434</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.255968795995</v>
+        <v>685.471677972031</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.255968795995</v>
+        <v>685.471677972031</v>
       </c>
       <c r="V2" t="n">
-        <v>788.0297140495313</v>
+        <v>423.7494359980349</v>
       </c>
       <c r="W2" t="n">
-        <v>788.0297140495313</v>
+        <v>423.7494359980349</v>
       </c>
       <c r="X2" t="n">
-        <v>521.8034593030679</v>
+        <v>423.7494359980349</v>
       </c>
       <c r="Y2" t="n">
-        <v>255.5772045566046</v>
+        <v>423.7494359980349</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>239.9303485078126</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="C3" t="n">
-        <v>65.47731922668561</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="D3" t="n">
-        <v>65.47731922668561</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="E3" t="n">
-        <v>65.47731922668561</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="F3" t="n">
-        <v>65.47731922668561</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="G3" t="n">
-        <v>65.47731922668561</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="H3" t="n">
-        <v>65.47731922668561</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="I3" t="n">
-        <v>21.08511937591989</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="J3" t="n">
-        <v>117.9487307741769</v>
+        <v>117.9487307741801</v>
       </c>
       <c r="K3" t="n">
-        <v>192.5098291378321</v>
+        <v>192.5098291378347</v>
       </c>
       <c r="L3" t="n">
-        <v>339.0889684539651</v>
+        <v>339.0889684539667</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4967785168087</v>
+        <v>529.4967785168092</v>
       </c>
       <c r="N3" t="n">
-        <v>739.3527616516415</v>
+        <v>739.3527616516408</v>
       </c>
       <c r="O3" t="n">
-        <v>909.1101923271674</v>
+        <v>909.1101923271656</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.022430280454</v>
+        <v>1026.022430280451</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.255968795995</v>
+        <v>1054.255968795991</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.255968795995</v>
+        <v>1054.255968795991</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.255968795995</v>
+        <v>905.6052437437237</v>
       </c>
       <c r="T3" t="n">
-        <v>1054.255968795995</v>
+        <v>708.7930347737533</v>
       </c>
       <c r="U3" t="n">
-        <v>1054.255968795995</v>
+        <v>480.6571377126113</v>
       </c>
       <c r="V3" t="n">
-        <v>870.1433410210361</v>
+        <v>480.6571377126113</v>
       </c>
       <c r="W3" t="n">
-        <v>615.9059842928345</v>
+        <v>226.4197809844097</v>
       </c>
       <c r="X3" t="n">
-        <v>615.9059842928345</v>
+        <v>226.4197809844097</v>
       </c>
       <c r="Y3" t="n">
-        <v>408.1456855278807</v>
+        <v>189.3004563959879</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.2455467062015</v>
+        <v>175.0122817570346</v>
       </c>
       <c r="C4" t="n">
-        <v>183.2455467062015</v>
+        <v>175.0122817570346</v>
       </c>
       <c r="D4" t="n">
-        <v>183.2455467062015</v>
+        <v>175.0122817570346</v>
       </c>
       <c r="E4" t="n">
-        <v>183.2455467062015</v>
+        <v>175.0122817570346</v>
       </c>
       <c r="F4" t="n">
-        <v>36.3555992082912</v>
+        <v>175.0122817570346</v>
       </c>
       <c r="G4" t="n">
-        <v>36.3555992082912</v>
+        <v>175.0122817570346</v>
       </c>
       <c r="H4" t="n">
-        <v>36.3555992082912</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="I4" t="n">
-        <v>36.3555992082912</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="J4" t="n">
-        <v>21.08511937591989</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="K4" t="n">
-        <v>126.3272391953616</v>
+        <v>126.3272391953611</v>
       </c>
       <c r="L4" t="n">
-        <v>316.5273535735311</v>
+        <v>316.52735357353</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4558292559564</v>
+        <v>527.4558292559547</v>
       </c>
       <c r="N4" t="n">
-        <v>738.8035136568308</v>
+        <v>738.8035136568287</v>
       </c>
       <c r="O4" t="n">
-        <v>918.0010123005266</v>
+        <v>918.0010123005239</v>
       </c>
       <c r="P4" t="n">
-        <v>1047.814747485829</v>
+        <v>1047.814747485826</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.255968795995</v>
+        <v>1054.255968795991</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.255968795995</v>
+        <v>925.4341625632142</v>
       </c>
       <c r="S4" t="n">
-        <v>847.457586439559</v>
+        <v>718.6357802067783</v>
       </c>
       <c r="T4" t="n">
-        <v>847.457586439559</v>
+        <v>718.6357802067783</v>
       </c>
       <c r="U4" t="n">
-        <v>581.2313316930956</v>
+        <v>657.6863208609388</v>
       </c>
       <c r="V4" t="n">
-        <v>449.4718014526649</v>
+        <v>403.0018326550519</v>
       </c>
       <c r="W4" t="n">
-        <v>183.2455467062015</v>
+        <v>403.0018326550519</v>
       </c>
       <c r="X4" t="n">
-        <v>183.2455467062015</v>
+        <v>175.0122817570346</v>
       </c>
       <c r="Y4" t="n">
-        <v>183.2455467062015</v>
+        <v>175.0122817570346</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>255.7225503044907</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="C5" t="n">
-        <v>41.00642392276842</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="D5" t="n">
-        <v>41.00642392276842</v>
+        <v>307.3840804899463</v>
       </c>
       <c r="E5" t="n">
-        <v>41.00642392276842</v>
+        <v>307.3840804899463</v>
       </c>
       <c r="F5" t="n">
-        <v>34.06092317356495</v>
+        <v>300.4385797407429</v>
       </c>
       <c r="G5" t="n">
-        <v>21.09711040012049</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="H5" t="n">
         <v>21.09711040012049</v>
@@ -4565,19 +4565,19 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917579</v>
+        <v>49.2826908791767</v>
       </c>
       <c r="K5" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515905</v>
+        <v>294.517494751591</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030607</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O5" t="n">
         <v>888.5149683358413</v>
@@ -4586,31 +4586,31 @@
         <v>1011.026904601763</v>
       </c>
       <c r="Q5" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R5" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946886</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946886</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946886</v>
       </c>
       <c r="V5" t="n">
-        <v>788.4778634388466</v>
+        <v>840.1393936243021</v>
       </c>
       <c r="W5" t="n">
-        <v>522.1002068716687</v>
+        <v>840.1393936243021</v>
       </c>
       <c r="X5" t="n">
-        <v>522.1002068716687</v>
+        <v>840.1393936243021</v>
       </c>
       <c r="Y5" t="n">
-        <v>255.7225503044907</v>
+        <v>573.7617370571243</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4620,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>650.2565623210693</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C6" t="n">
-        <v>475.8035330399423</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D6" t="n">
-        <v>326.869123378691</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E6" t="n">
-        <v>167.6316683732355</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F6" t="n">
         <v>21.09711040012049</v>
@@ -4647,49 +4647,49 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957465</v>
+        <v>95.78113116957456</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298713</v>
+        <v>242.5255548298711</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263951</v>
+        <v>433.1262439263948</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290001</v>
+        <v>643.1802110289997</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557299</v>
+        <v>904.2569522304907</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S6" t="n">
-        <v>887.8833378166544</v>
+        <v>906.219221609864</v>
       </c>
       <c r="T6" t="n">
-        <v>887.8833378166544</v>
+        <v>709.4101432413016</v>
       </c>
       <c r="U6" t="n">
-        <v>887.8833378166544</v>
+        <v>709.4101432413016</v>
       </c>
       <c r="V6" t="n">
-        <v>887.8833378166544</v>
+        <v>474.2580350095589</v>
       </c>
       <c r="W6" t="n">
-        <v>887.8833378166544</v>
+        <v>228.9486106056533</v>
       </c>
       <c r="X6" t="n">
-        <v>887.8833378166544</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="Y6" t="n">
-        <v>818.4718993411373</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="7">
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>340.1499327403632</v>
+        <v>225.1168882493046</v>
       </c>
       <c r="C7" t="n">
-        <v>171.2137498124562</v>
+        <v>225.1168882493046</v>
       </c>
       <c r="D7" t="n">
-        <v>21.09711040012049</v>
+        <v>75.00024883696886</v>
       </c>
       <c r="E7" t="n">
-        <v>21.09711040012049</v>
+        <v>75.00024883696886</v>
       </c>
       <c r="F7" t="n">
         <v>21.09711040012049</v>
@@ -4726,49 +4726,49 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551007</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375333</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227043</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075543</v>
+        <v>918.469937207554</v>
       </c>
       <c r="P7" t="n">
-        <v>1048.360858816803</v>
+        <v>1048.360858816802</v>
       </c>
       <c r="Q7" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407072</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407072</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>700.5939555987215</v>
       </c>
       <c r="U7" t="n">
-        <v>1054.855520006025</v>
+        <v>700.5939555987215</v>
       </c>
       <c r="V7" t="n">
-        <v>1054.855520006025</v>
+        <v>445.9094673928347</v>
       </c>
       <c r="W7" t="n">
-        <v>970.5805276121504</v>
+        <v>445.9094673928347</v>
       </c>
       <c r="X7" t="n">
-        <v>742.590976714133</v>
+        <v>445.9094673928347</v>
       </c>
       <c r="Y7" t="n">
-        <v>521.7983975706029</v>
+        <v>225.1168882493046</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>728.3028554854573</v>
+        <v>1284.324637962024</v>
       </c>
       <c r="C8" t="n">
-        <v>728.3028554854573</v>
+        <v>1284.324637962024</v>
       </c>
       <c r="D8" t="n">
-        <v>728.3028554854573</v>
+        <v>926.0589393552734</v>
       </c>
       <c r="E8" t="n">
-        <v>728.3028554854573</v>
+        <v>540.2706867570292</v>
       </c>
       <c r="F8" t="n">
-        <v>721.3573547362538</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704328</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056585</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W8" t="n">
-        <v>1878.507785786471</v>
+        <v>1876.125824262336</v>
       </c>
       <c r="X8" t="n">
-        <v>1505.042027525391</v>
+        <v>1674.463969937836</v>
       </c>
       <c r="Y8" t="n">
-        <v>1114.902695549579</v>
+        <v>1284.324637962024</v>
       </c>
     </row>
     <row r="9">
@@ -4872,37 +4872,37 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735141</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049857</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M9" t="n">
         <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.390115761151</v>
+        <v>1852.283970943244</v>
       </c>
       <c r="O9" t="n">
-        <v>1937.460550937313</v>
+        <v>2184.354406119406</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2431.537139951703</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2546.853055059249</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>682.9724752679349</v>
+        <v>367.0729169938204</v>
       </c>
       <c r="C10" t="n">
-        <v>514.036292340028</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="D10" t="n">
-        <v>514.036292340028</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E10" t="n">
-        <v>366.1231987576349</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1516.192471006945</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1516.192471006945</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1227.074133510783</v>
+        <v>1092.823040066908</v>
       </c>
       <c r="V10" t="n">
-        <v>972.3896453048956</v>
+        <v>838.1385518610207</v>
       </c>
       <c r="W10" t="n">
-        <v>682.9724752679349</v>
+        <v>548.7213818240601</v>
       </c>
       <c r="X10" t="n">
-        <v>682.9724752679349</v>
+        <v>548.7213818240601</v>
       </c>
       <c r="Y10" t="n">
-        <v>682.9724752679349</v>
+        <v>548.7213818240601</v>
       </c>
     </row>
     <row r="11">
@@ -5018,61 +5018,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637307</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998291</v>
+        <v>545.3854261579756</v>
       </c>
       <c r="E13" t="n">
-        <v>194.8007783998291</v>
+        <v>397.4723325755825</v>
       </c>
       <c r="F13" t="n">
-        <v>194.8007783998291</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111716</v>
@@ -5288,40 +5288,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349513</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>631.7012443408905</v>
+        <v>580.8993044876618</v>
       </c>
       <c r="C16" t="n">
-        <v>631.7012443408905</v>
+        <v>411.9631215597549</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408905</v>
+        <v>261.8464821474191</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>113.933388565026</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5458,28 +5458,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602297</v>
       </c>
       <c r="V16" t="n">
-        <v>1551.549009249638</v>
+        <v>1500.74706939641</v>
       </c>
       <c r="W16" t="n">
-        <v>1262.131839212678</v>
+        <v>1211.329899359449</v>
       </c>
       <c r="X16" t="n">
-        <v>1034.14228831466</v>
+        <v>983.3403484614316</v>
       </c>
       <c r="Y16" t="n">
-        <v>813.3497091711303</v>
+        <v>762.5477693179015</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C17" t="n">
         <v>1948.813509611464</v>
@@ -5501,28 +5501,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
@@ -5531,7 +5531,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="18">
@@ -5589,25 +5589,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>409.1360811687895</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>762.547769317909</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>593.6115863900021</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>443.4949469776664</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>295.5818533952732</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797189</v>
@@ -5695,28 +5695,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="20">
@@ -5726,31 +5726,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075809</v>
@@ -5759,7 +5759,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
@@ -5768,10 +5768,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398594</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="21">
@@ -5832,22 +5832,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797189</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438167</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400721</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121652</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121652</v>
+        <v>545.3854261579756</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121652</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121652</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270452</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797189</v>
@@ -5917,7 +5917,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570818</v>
@@ -5926,13 +5926,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
         <v>2197.062545487568</v>
@@ -5950,10 +5950,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,52 +5975,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,25 +6060,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273903</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="L24" t="n">
-        <v>95.58405025273903</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
         <v>1859.536823237711</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>558.0193492433381</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C25" t="n">
-        <v>558.0193492433381</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="D25" t="n">
-        <v>407.9027098310023</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>451.6888124356586</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1732.551602357973</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1477.867114152086</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W25" t="n">
-        <v>1188.449944115125</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X25" t="n">
-        <v>960.4603932171079</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>739.6678140735778</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="26">
@@ -6212,52 +6212,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123002</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.660776418797</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908901</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490367</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,7 +6473,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6488,10 +6488,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
@@ -6546,16 +6546,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6680,10 +6680,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6692,43 +6692,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>119.290296770379</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>695.5020655703109</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C34" t="n">
-        <v>526.5658826424041</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D34" t="n">
-        <v>376.4492432300683</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E34" t="n">
-        <v>376.4492432300683</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>376.4492432300683</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>209.2531439449482</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6929,28 +6929,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6962,25 +6962,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>814.4194208819168</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D37" t="n">
-        <v>664.3027814695811</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E37" t="n">
-        <v>516.389687887188</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,25 +7169,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694706</v>
@@ -7202,22 +7202,22 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C40" t="n">
-        <v>513.8536007400712</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797186</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797186</v>
@@ -7333,49 +7333,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="41">
@@ -7403,43 +7403,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
@@ -7448,10 +7448,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>990.6907003535711</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7625,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,28 +7658,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
         <v>3820.749612123003</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,22 +7719,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910811</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
   </sheetData>
@@ -7991,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.05082900859324</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>61.66077838377301</v>
+        <v>60.60994937518655</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.96589850477316</v>
+        <v>99.96589850477692</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761162</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418308</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8307,10 +8307,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>92.05878169167812</v>
       </c>
       <c r="P6" t="n">
-        <v>97.32166909127238</v>
+        <v>5.262887399594689</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8541,19 +8541,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.3877325071647</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>265.0304328515151</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>36.58048154589926</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8933,13 +8933,13 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>-6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>-1.364242052659392e-12</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10124,13 +10124,13 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>-1.364242052659392e-12</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>-1.815884897519829e-13</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10601,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>-2.046363078989089e-12</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>3.694822225952521e-13</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>66.36248435538609</v>
       </c>
       <c r="G13" t="n">
-        <v>65.54986409393025</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>125.5054897610477</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>116.6691671648106</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>85.96822242532677</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>86.46557462472369</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.2291039219413</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>96.94647126761414</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,10 +24418,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>43.72409101823402</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>126.0028419604372</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>57.2291039219385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>100.7734165143922</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25072,16 +25072,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>26.01259675821727</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>203.6630665685109</v>
       </c>
     </row>
     <row r="35">
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>37.1260136526042</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>24.63391537253442</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>211.9838267404994</v>
       </c>
     </row>
     <row r="41">
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>73.65209508333223</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,10 +26026,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,13 +26077,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>211.9838267404979</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>831812.9582049466</v>
+        <v>831812.9582049468</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>831778.1655941759</v>
+        <v>831778.165594176</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>835491.4104457165</v>
+        <v>835491.4104457163</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>814465.927270154</v>
+        <v>814465.9272701541</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>814465.9272701541</v>
+        <v>814465.9272701538</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>814465.927270154</v>
+        <v>814465.9272701541</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>814465.927270154</v>
+        <v>814465.9272701541</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>814465.927270154</v>
+        <v>814465.9272701541</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>814465.9272701541</v>
+        <v>814465.927270154</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>814465.9272701541</v>
+        <v>814465.927270154</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>814465.927270154</v>
+        <v>814465.9272701541</v>
       </c>
     </row>
   </sheetData>
@@ -26314,43 +26314,43 @@
         <v>615781.3273982124</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982122</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="F2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.949767504</v>
       </c>
       <c r="G2" t="n">
-        <v>605359.949767504</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="H2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675046</v>
       </c>
       <c r="I2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="J2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="K2" t="n">
         <v>605359.9497675042</v>
       </c>
       <c r="L2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="M2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="N2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="O2" t="n">
         <v>605359.9497675045</v>
-      </c>
-      <c r="O2" t="n">
-        <v>605359.9497675041</v>
       </c>
       <c r="P2" t="n">
         <v>605359.9497675042</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>679693.2761163147</v>
+        <v>679693.2761163124</v>
       </c>
       <c r="C3" t="n">
-        <v>373.9475389938846</v>
+        <v>373.9475389957981</v>
       </c>
       <c r="D3" t="n">
-        <v>391128.3638059434</v>
+        <v>391128.3638059438</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245462</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,19 +26381,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68959.93717491484</v>
+        <v>68959.93717491456</v>
       </c>
       <c r="K3" t="n">
-        <v>38.57632395574115</v>
+        <v>38.57632395583082</v>
       </c>
       <c r="L3" t="n">
-        <v>95382.64613756968</v>
+        <v>95382.64613756971</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289267</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.094354047381785e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>246846.0156077608</v>
+        <v>246846.0156077613</v>
       </c>
       <c r="C4" t="n">
         <v>246753.8673982314</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="E4" t="n">
+        <v>8117.312426731975</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8117.31242673184</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8117.312426731893</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8117.312426731894</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8117.312426731906</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8117.312426731936</v>
+      </c>
+      <c r="K4" t="n">
+        <v>8117.312426731942</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8117.312426731998</v>
+      </c>
+      <c r="M4" t="n">
+        <v>8117.312426731947</v>
+      </c>
+      <c r="N4" t="n">
         <v>8117.312426731925</v>
-      </c>
-      <c r="F4" t="n">
-        <v>8117.312426731909</v>
-      </c>
-      <c r="G4" t="n">
-        <v>8117.312426731957</v>
-      </c>
-      <c r="H4" t="n">
-        <v>8117.312426731935</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8117.312426731935</v>
-      </c>
-      <c r="J4" t="n">
-        <v>8117.312426732036</v>
-      </c>
-      <c r="K4" t="n">
-        <v>8117.312426732019</v>
-      </c>
-      <c r="L4" t="n">
-        <v>8117.312426732002</v>
-      </c>
-      <c r="M4" t="n">
-        <v>8117.312426732015</v>
-      </c>
-      <c r="N4" t="n">
-        <v>8117.312426732004</v>
       </c>
       <c r="O4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="P4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731984</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63030.89693360384</v>
+        <v>63030.89693360374</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-373788.8612594669</v>
+        <v>-373788.861259465</v>
       </c>
       <c r="C6" t="n">
-        <v>305605.7092567208</v>
+        <v>305605.7092567188</v>
       </c>
       <c r="D6" t="n">
-        <v>-2602.809109439113</v>
+        <v>-2602.809109439637</v>
       </c>
       <c r="E6" t="n">
-        <v>-11365.334107681</v>
+        <v>-11400.07203311627</v>
       </c>
       <c r="F6" t="n">
-        <v>496120.1075168653</v>
+        <v>496085.3695914294</v>
       </c>
       <c r="G6" t="n">
-        <v>496120.107516865</v>
+        <v>496085.3695914294</v>
       </c>
       <c r="H6" t="n">
-        <v>496120.1075168652</v>
+        <v>496085.3695914298</v>
       </c>
       <c r="I6" t="n">
-        <v>496120.1075168657</v>
+        <v>496085.3695914297</v>
       </c>
       <c r="J6" t="n">
-        <v>427160.1703419501</v>
+        <v>427125.4324165152</v>
       </c>
       <c r="K6" t="n">
-        <v>496081.5311929093</v>
+        <v>496046.7932674737</v>
       </c>
       <c r="L6" t="n">
-        <v>400737.4613792956</v>
+        <v>400702.7234538597</v>
       </c>
       <c r="M6" t="n">
-        <v>363512.8137879383</v>
+        <v>363478.0758625027</v>
       </c>
       <c r="N6" t="n">
-        <v>496120.1075168654</v>
+        <v>496085.3695914294</v>
       </c>
       <c r="O6" t="n">
-        <v>496120.1075168651</v>
+        <v>496085.3695914296</v>
       </c>
       <c r="P6" t="n">
-        <v>496120.1075168652</v>
+        <v>496085.3695914294</v>
       </c>
     </row>
   </sheetData>
@@ -26707,19 +26707,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.6975324726935</v>
+        <v>613.6975324726915</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.055013769478</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.5639921989987</v>
+        <v>263.5639921989978</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099649</v>
@@ -26808,10 +26808,10 @@
         <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26826,10 +26826,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>3.419150020582837e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.6975324726935</v>
+        <v>613.6975324726915</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3574812967847265</v>
+        <v>0.3574812967865455</v>
       </c>
       <c r="D3" t="n">
-        <v>320.0098783480609</v>
+        <v>320.0098783480613</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241349</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.5639921989987</v>
+        <v>263.5639921989978</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1498878025074646</v>
+        <v>0.1498878025082604</v>
       </c>
       <c r="D4" t="n">
         <v>376.8709520985327</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,22 +27033,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.5639921989987</v>
+        <v>263.5639921989976</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1498878025074646</v>
+        <v>0.1498878025079193</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985325</v>
+        <v>376.8709520985326</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>3.419150020582837e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.5639921989987</v>
+        <v>263.5639921989978</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1498878025074646</v>
+        <v>0.1498878025082604</v>
       </c>
       <c r="L4" t="n">
         <v>376.8709520985327</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>187.5644931692844</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>314.2083504396426</v>
+        <v>50.64435824064492</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3620237587335</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.8004413602292</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2960065554913</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.1482828471418</v>
       </c>
       <c r="V2" t="n">
-        <v>64.18826627113623</v>
+        <v>68.64723891587875</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>106.1671084794704</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.6739464570549</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27458,7 +27458,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27473,10 +27473,10 @@
         <v>136.0234885084581</v>
       </c>
       <c r="H3" t="n">
-        <v>99.48674643928069</v>
+        <v>99.48674643928074</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.9482778522582</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,19 +27503,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.20026557072376</v>
+        <v>18.20026557072404</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1642178017449</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8440868802706</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8545380905306</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>50.52908565221628</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27524,7 +27524,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>168.9345644347668</v>
       </c>
     </row>
     <row r="4">
@@ -27546,19 +27546,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.8843116769506</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3878907573036</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1699595597227</v>
+        <v>122.1699595597228</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.11777503404784</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5335881704491</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27591,16 +27591,16 @@
         <v>223.2171002436558</v>
       </c>
       <c r="U4" t="n">
-        <v>22.69467346577358</v>
+        <v>225.9187009123912</v>
       </c>
       <c r="V4" t="n">
-        <v>121.6957083858016</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>22.95900613759233</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,10 +27616,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>152.7039266531025</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917687</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27631,7 +27631,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776191</v>
       </c>
       <c r="I5" t="n">
         <v>115.3066195468971</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>212.2897156032233</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>64.03837846862876</v>
+        <v>267.9509865514523</v>
       </c>
       <c r="W5" t="n">
-        <v>85.52708871590687</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>122.5240586545474</v>
+        <v>122.5240586545475</v>
       </c>
     </row>
     <row r="6">
@@ -27692,19 +27692,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
@@ -27713,7 +27713,7 @@
         <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150561</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527771</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>8.838653001053103</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>136.9653716865424</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>92.05694097045135</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27792,10 +27792,10 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>122.1505735248086</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888212</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>203.0907558666556</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>49.15679284879127</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>170.0858648972137</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,16 +28017,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>75.61134778486075</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>265.0090336922097</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-7.1100163143001e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28387,7 +28387,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-1.097847330286107e-12</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28539,7 +28539,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>-7.517303009959066e-12</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-1.221555270729305e-12</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28624,13 +28624,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
     </row>
     <row r="18">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-1.350276212680659e-12</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28858,16 +28858,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>-8.722622624190989e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
     </row>
     <row r="21">
@@ -29038,7 +29038,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>-4.854165635630016e-13</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29095,7 +29095,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>-1.413953810654301e-12</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -29332,7 +29332,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>-8.44124770082999e-13</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29436,7 +29436,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>3.758651504979533e-12</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29758,7 +29758,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>8.360392837795219e-13</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30709,7 +30709,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -30885,7 +30885,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.467125758684193</v>
+        <v>2.467125758684185</v>
       </c>
       <c r="H2" t="n">
-        <v>25.2664516761245</v>
+        <v>25.26645167612442</v>
       </c>
       <c r="I2" t="n">
-        <v>95.11386581167245</v>
+        <v>95.11386581167213</v>
       </c>
       <c r="J2" t="n">
-        <v>209.3942148611227</v>
+        <v>209.394214861122</v>
       </c>
       <c r="K2" t="n">
-        <v>313.8276482262247</v>
+        <v>313.8276482262236</v>
       </c>
       <c r="L2" t="n">
-        <v>389.3309481635562</v>
+        <v>389.3309481635549</v>
       </c>
       <c r="M2" t="n">
-        <v>433.2056958745562</v>
+        <v>433.2056958745547</v>
       </c>
       <c r="N2" t="n">
-        <v>440.2154169364177</v>
+        <v>440.2154169364162</v>
       </c>
       <c r="O2" t="n">
-        <v>415.6829351735017</v>
+        <v>415.6829351735003</v>
       </c>
       <c r="P2" t="n">
-        <v>354.7757680059856</v>
+        <v>354.7757680059844</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.4218267731079</v>
+        <v>266.4218267731069</v>
       </c>
       <c r="R2" t="n">
-        <v>154.9755884389461</v>
+        <v>154.9755884389456</v>
       </c>
       <c r="S2" t="n">
-        <v>56.21962822601611</v>
+        <v>56.21962822601592</v>
       </c>
       <c r="T2" t="n">
-        <v>10.79984300864006</v>
+        <v>10.79984300864002</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1973700606947354</v>
+        <v>0.1973700606947348</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320028654752586</v>
+        <v>1.320028654752582</v>
       </c>
       <c r="H3" t="n">
-        <v>12.74869779721577</v>
+        <v>12.74869779721572</v>
       </c>
       <c r="I3" t="n">
-        <v>45.44835499915703</v>
+        <v>45.44835499915688</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7137598773047</v>
+        <v>124.7137598773042</v>
       </c>
       <c r="K3" t="n">
-        <v>213.1556797457279</v>
+        <v>213.1556797457272</v>
       </c>
       <c r="L3" t="n">
-        <v>286.6141164628368</v>
+        <v>286.6141164628358</v>
       </c>
       <c r="M3" t="n">
-        <v>334.4651551976179</v>
+        <v>334.4651551976168</v>
       </c>
       <c r="N3" t="n">
-        <v>343.3174526235684</v>
+        <v>343.3174526235673</v>
       </c>
       <c r="O3" t="n">
-        <v>314.0683966419454</v>
+        <v>314.0683966419443</v>
       </c>
       <c r="P3" t="n">
-        <v>252.0675770641145</v>
+        <v>252.0675770641136</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.500499859295</v>
+        <v>168.5004998592945</v>
       </c>
       <c r="R3" t="n">
-        <v>81.95756858191938</v>
+        <v>81.95756858191909</v>
       </c>
       <c r="S3" t="n">
-        <v>24.51895330209297</v>
+        <v>24.51895330209289</v>
       </c>
       <c r="T3" t="n">
-        <v>5.320641814550992</v>
+        <v>5.320641814550974</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08684399044424912</v>
+        <v>0.08684399044424883</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.106667681508136</v>
+        <v>1.106667681508132</v>
       </c>
       <c r="H4" t="n">
-        <v>9.839281750135978</v>
+        <v>9.839281750135944</v>
       </c>
       <c r="I4" t="n">
-        <v>33.28051536753559</v>
+        <v>33.28051536753547</v>
       </c>
       <c r="J4" t="n">
-        <v>78.24140508262519</v>
+        <v>78.24140508262494</v>
       </c>
       <c r="K4" t="n">
-        <v>128.5746633606725</v>
+        <v>128.574663360672</v>
       </c>
       <c r="L4" t="n">
-        <v>164.5313023944005</v>
+        <v>164.5313023943999</v>
       </c>
       <c r="M4" t="n">
-        <v>173.4751893840435</v>
+        <v>173.4751893840429</v>
       </c>
       <c r="N4" t="n">
-        <v>169.3503371166042</v>
+        <v>169.3503371166036</v>
       </c>
       <c r="O4" t="n">
-        <v>156.4224464735318</v>
+        <v>156.4224464735313</v>
       </c>
       <c r="P4" t="n">
-        <v>133.8464257707657</v>
+        <v>133.8464257707653</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.66832740337672</v>
+        <v>92.66832740337641</v>
       </c>
       <c r="R4" t="n">
-        <v>49.75980320672035</v>
+        <v>49.75980320672018</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28619950410087</v>
+        <v>19.2861995041008</v>
       </c>
       <c r="T4" t="n">
-        <v>4.72848918462567</v>
+        <v>4.728489184625654</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06036369171862566</v>
+        <v>0.06036369171862545</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425035</v>
       </c>
       <c r="H5" t="n">
-        <v>25.28116948649916</v>
+        <v>25.28116948649915</v>
       </c>
       <c r="I5" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350877</v>
       </c>
       <c r="J5" t="n">
-        <v>209.5161878388634</v>
+        <v>209.5161878388633</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016251</v>
       </c>
       <c r="L5" t="n">
-        <v>389.5577350167918</v>
+        <v>389.5577350167916</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459292</v>
+        <v>433.458039945929</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986831</v>
+        <v>440.471844198683</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658379</v>
+        <v>415.9250721658378</v>
       </c>
       <c r="P5" t="n">
-        <v>354.9824263269073</v>
+        <v>354.9824263269072</v>
       </c>
       <c r="Q5" t="n">
-        <v>266.5770185656231</v>
+        <v>266.577018565623</v>
       </c>
       <c r="R5" t="n">
-        <v>155.0658623465206</v>
+        <v>155.0658623465205</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702305</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1974850295540028</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.32079757678718</v>
+        <v>1.320797576787179</v>
       </c>
       <c r="H6" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990946</v>
       </c>
       <c r="J6" t="n">
         <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
-        <v>213.2798437919895</v>
+        <v>213.2798437919894</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458303</v>
       </c>
       <c r="M6" t="n">
-        <v>334.6599825043656</v>
+        <v>334.6599825043655</v>
       </c>
       <c r="N6" t="n">
-        <v>343.517436429399</v>
+        <v>343.5174364293989</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542724</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480711</v>
       </c>
       <c r="Q6" t="n">
-        <v>168.5986520825179</v>
+        <v>168.5986520825178</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736542</v>
       </c>
       <c r="S6" t="n">
-        <v>24.53323569163905</v>
+        <v>24.53323569163904</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944812</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020919</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.107312319912174</v>
+        <v>1.107312319912173</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582789</v>
+        <v>9.845013171582785</v>
       </c>
       <c r="I7" t="n">
-        <v>33.29990140244975</v>
+        <v>33.29990140244973</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779065</v>
       </c>
       <c r="K7" t="n">
         <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
-        <v>164.6271425440336</v>
+        <v>164.6271425440335</v>
       </c>
       <c r="M7" t="n">
-        <v>173.576239384051</v>
+        <v>173.5762393840509</v>
       </c>
       <c r="N7" t="n">
-        <v>169.4489843734694</v>
+        <v>169.4489843734693</v>
       </c>
       <c r="O7" t="n">
         <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
-        <v>133.9243918555596</v>
+        <v>133.9243918555595</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919118</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350553</v>
       </c>
       <c r="S7" t="n">
         <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715649</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339134</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31844,10 +31844,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M12" t="n">
-        <v>270.948695672725</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071786</v>
@@ -31856,13 +31856,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -32072,7 +32072,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32087,10 +32087,10 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>616.9033572954392</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>512.9101366533177</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32099,7 +32099,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32309,13 +32309,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>303.4024373464759</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473073</v>
@@ -32327,10 +32327,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32503,7 +32503,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32552,31 +32552,31 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622656</v>
+        <v>560.1612034965806</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32643,7 +32643,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>183.7183104822597</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>732.4825987614915</v>
+        <v>171.5999003578894</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33266,34 +33266,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>164.2853229338208</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>691.6611968462889</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>344.2757660550394</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>162.5000833330453</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>217.8799919951683</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>240.4469701760385</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.34831033443646</v>
+        <v>28.34831033443575</v>
       </c>
       <c r="K2" t="n">
-        <v>93.73779718124416</v>
+        <v>93.73779718124308</v>
       </c>
       <c r="L2" t="n">
-        <v>153.5645331935689</v>
+        <v>153.5645331935676</v>
       </c>
       <c r="M2" t="n">
-        <v>202.8594626472834</v>
+        <v>202.859462647282</v>
       </c>
       <c r="N2" t="n">
-        <v>210.8023533398268</v>
+        <v>210.8023533398253</v>
       </c>
       <c r="O2" t="n">
-        <v>185.5847237518149</v>
+        <v>186.6355527604068</v>
       </c>
       <c r="P2" t="n">
-        <v>123.542772250716</v>
+        <v>123.5427722507149</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.11613689865837</v>
+        <v>44.11613689865746</v>
       </c>
       <c r="R2" t="n">
-        <v>1.050829008586977</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.84203171541112</v>
+        <v>97.84203171541446</v>
       </c>
       <c r="K3" t="n">
-        <v>75.31424077136893</v>
+        <v>75.31424077136822</v>
       </c>
       <c r="L3" t="n">
-        <v>148.0597366829626</v>
+        <v>148.0597366829616</v>
       </c>
       <c r="M3" t="n">
-        <v>192.3311212755996</v>
+        <v>192.3311212755985</v>
       </c>
       <c r="N3" t="n">
-        <v>211.9757405402351</v>
+        <v>211.975740540234</v>
       </c>
       <c r="O3" t="n">
-        <v>171.4721521975009</v>
+        <v>171.4721521974998</v>
       </c>
       <c r="P3" t="n">
-        <v>118.0931696497842</v>
+        <v>118.0931696497834</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.51872577327353</v>
+        <v>28.51872577327296</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3051715347896</v>
+        <v>106.3051715347892</v>
       </c>
       <c r="L4" t="n">
-        <v>192.1213276547167</v>
+        <v>192.1213276547161</v>
       </c>
       <c r="M4" t="n">
-        <v>213.059066345884</v>
+        <v>213.0590663458835</v>
       </c>
       <c r="N4" t="n">
-        <v>213.4825094958328</v>
+        <v>213.4825094958322</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0075743875715</v>
+        <v>181.007574387571</v>
       </c>
       <c r="P4" t="n">
-        <v>131.1249850356592</v>
+        <v>131.1249850356588</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.506284151682337</v>
+        <v>6.506284151682024</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217709</v>
+        <v>28.470283312177</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664455</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468043</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186563</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020922</v>
+        <v>211.058780602092</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441512</v>
+        <v>185.826860744151</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716376</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117347</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763047</v>
+        <v>75.43840481763038</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659561</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823473</v>
+        <v>192.5259485823472</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460657</v>
+        <v>212.1757243460656</v>
       </c>
       <c r="O6" t="n">
-        <v>171.6550983098281</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="P6" t="n">
-        <v>215.5616691250133</v>
+        <v>123.5028874333356</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649633</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>106.3800667966406</v>
+        <v>106.3800667966405</v>
       </c>
       <c r="L7" t="n">
         <v>192.2171678043497</v>
       </c>
       <c r="M7" t="n">
-        <v>213.1601163458916</v>
+        <v>213.1601163458915</v>
       </c>
       <c r="N7" t="n">
-        <v>213.581156752698</v>
+        <v>213.5811567526979</v>
       </c>
       <c r="O7" t="n">
         <v>181.0986910958077</v>
       </c>
       <c r="P7" t="n">
-        <v>131.2029511204531</v>
+        <v>131.202951120453</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496826</v>
+        <v>6.560263827496797</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
         <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>514.7099619750473</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>15.64270034434938</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35492,10 +35492,10 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M12" t="n">
-        <v>128.8146617507067</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238454</v>
@@ -35504,13 +35504,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35653,13 +35653,13 @@
         <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902943</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35735,10 +35735,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>485.5616452121058</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>370.3138922088733</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35747,7 +35747,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>165.5609983721169</v>
       </c>
       <c r="L18" t="n">
         <v>500.3288951674331</v>
@@ -35975,10 +35975,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902405</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402472</v>
+        <v>418.0271695745623</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
@@ -36288,7 +36288,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060455</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193524</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>45.87687150790071</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>590.3485648394733</v>
+        <v>29.46586643587111</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,25 +36914,25 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.858447819351</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>25.73094315394658</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>560.3194847629557</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>212.9340539717061</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396416</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683793</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,31 +37616,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>23.94570355317108</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>79.32561221529411</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>101.8925903961643</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010465</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
